--- a/CD/InvigilatorRosterGenerator/SETUP/output/output.xlsx
+++ b/CD/InvigilatorRosterGenerator/SETUP/output/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="540">
   <si>
     <t>CourseID</t>
   </si>
@@ -565,1138 +565,1075 @@
     <t>Theresa  Mansor,Cheryl  Mendez</t>
   </si>
   <si>
-    <t>David B Bean,Theresa  Mansor</t>
-  </si>
-  <si>
-    <t>David B Bean,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Julie  Land</t>
-  </si>
-  <si>
-    <t>Susan  Biglin,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>David B Bean</t>
+    <t>Thomas  Ward,Shaylese  Lassiter</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Robert  Newman,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Katie L Marakos</t>
   </si>
   <si>
     <t>William  Heckman,Kelly  Bird</t>
   </si>
   <si>
-    <t>Kelly  Bird,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Paula  Dever</t>
+    <t>Della L Adams-meyer,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>John  Toland,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>David B Bean,Paula Mia  Campo</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Cheryl J Alessandrine,Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Amber  Fenton,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Adhan  Perez</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Randi  Gupton,Peter  Campo</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Chalon  Eberhart</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Julie  Land</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>William  Heckman,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Leslie  Harvey</t>
   </si>
   <si>
     <t>Crystal A Aikens,Beth Ann  Daley</t>
   </si>
   <si>
-    <t>William  Heckman,Monica  Thomas</t>
+    <t>Ericka  Chapman,Matthew  Freund</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Susan  Rosenberg,Thomas  Ward</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Shaylese  Lassiter</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Jason D Little</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Kristina  Santoro</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Crystal A Aikens,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Ericka  Chapman,Gavin  Powell,Susan  Rosenberg</t>
+  </si>
+  <si>
+    <t>William  Heckman,David B Bean</t>
+  </si>
+  <si>
+    <t>David B Bean,Della L Adams-meyer</t>
+  </si>
+  <si>
+    <t>Julie  Land,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,Brittany M Smith</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Barbara  Grandy,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Jason D Little,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Barbara  Grandy,Leslie  Harvey,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Evelyn  Perez,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Amber  Fenton,Kathryn  Howard,Julie  Land</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Megan  Davis-white,Jason D Little</t>
+  </si>
+  <si>
+    <t>Allison M Devinney,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Susan  Rosenberg</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Barbara  Shumski,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Kay  Maltz,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Evelyn  Perez,Adhan  Perez</t>
+  </si>
+  <si>
+    <t>Theresa  Mansor,John  Toland</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Alyssa  Scull,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Francesca L Mancuso,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Susan  Rosenberg,Monica  Thomas,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Leslie  Harvey,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Karissa  Ksiazek,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Jiovanna  Debella,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,David B Bean</t>
+  </si>
+  <si>
+    <t>Della L Adams-meyer,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Julie  Land,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Gionna A Botto-malecki,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Riana  Cordoba</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Gina  Walk</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Allison M Devinney,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Jason D Little</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Allison M Devinney,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,John  Toland</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Brittany M Smith</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Adhan  Perez</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Jason D Little,Katie L Marakos</t>
   </si>
   <si>
     <t>Amy  Smith,Allison M Devinney</t>
   </si>
   <si>
-    <t>Susan  Rosenberg,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,John  Toland</t>
-  </si>
-  <si>
-    <t>Brittany M Smith,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>David B Bean,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Theresa  Mansor,Paula  Dever</t>
-  </si>
-  <si>
-    <t>Brittany M Smith,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>John  Toland,Paula  Dever</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,John  Toland</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Evelyn  Perez,Crystal A Aikens</t>
+    <t>Tracey  Captan,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Teonnah  Thompson</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Kathryn  Howard,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Susan  Biglin</t>
+  </si>
+  <si>
+    <t>Barbara  Shumski,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Barbara  Grandy,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Alyssa  Scull,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kay  Maltz,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Lourdes  Vidal-turner</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Robert  Newman,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Nina  Ficca</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Francesca L Mancuso,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Christy  Feehan,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Michael  Miltenberger,Kimberly  Santoro</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Tiffany  Smith,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Gionna A Botto-malecki,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Georgiana  Murnaghan,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Michael  Miltenberger,Kimberly  Santoro</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Donna Marie  Shea,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Jason D Little</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Cheryl  Mendez</t>
+  </si>
+  <si>
+    <t>John  Toland,Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Crystal A Aikens</t>
+  </si>
+  <si>
+    <t>Beth Ann  Daley,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Susan  Rosenberg,Shaylese  Lassiter</t>
+  </si>
+  <si>
+    <t>Jason D Little,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Cheryl J Alessandrine,Chalon  Eberhart</t>
+  </si>
+  <si>
+    <t>Amber  Fenton,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>Leslie  Harvey,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Rosalba  Alarcon,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Anthony  Nistico,Andrea  Vreeland</t>
+  </si>
+  <si>
+    <t>Christy  Feehan,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Holly  Lindner,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Beth Ann  Daley,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Amy  Smith,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Kristina  Santoro</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Leslie  Harvey</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Gavin  Powell</t>
   </si>
   <si>
     <t>Antoinette  Gray,Susan  Rosenberg</t>
   </si>
   <si>
-    <t>Megan  Davis-white,Monica  Thomas</t>
-  </si>
-  <si>
-    <t>Jason D Little,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Tracey  Captan</t>
+    <t>Gary  Elwell,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Rosalba  Alarcon,Riana  Cordoba</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Danielle  Newsome</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Barbara  Grandy</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Christy  Feehan,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Theresa  Mansor,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Peter  Campo</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Kathy N Lewis,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Robert  Newman,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Susan  Biglin</t>
+  </si>
+  <si>
+    <t>Barbara  Grandy,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Christy  Feehan,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Gina  Walk,Shaylese  Lassiter</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Julie  Land,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Kimberly  Santoro</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Melissa  Wargo-brown,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Barbara  Grandy,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Tiffany  Smith,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Lauren  Kaplan,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Brandi  Sheridan,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Kate  Mccabe,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Kathryn  Howard,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Allison M Devinney,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Charlotte  Nagele Boles,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Alison  Bell,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,David B Bean,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Ericka  Chapman,Gavin  Powell</t>
+  </si>
+  <si>
+    <t>Susan  Rosenberg,Katie L Marakos</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Barbara  Grandy,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Nicole  Lindsay,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Andrea  Vreeland</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Michael  Miltenberger,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Anthony  Nistico,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Lourdes  Vidal-turner</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,John  Toland,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Katie L Marakos,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Amber  Fenton,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Barbara  Shumski,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Elizabeth  Morales,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Charlotte  Nagele Boles,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Kay  Maltz,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Michael  Miltenberger,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Carol H Buzby,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Della L Adams-meyer,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,John  Toland,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Matthew  Freund,Thomas  Ward</t>
+  </si>
+  <si>
+    <t>Amy  Smith,Tracey  Captan,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Randi  Gupton,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Danielle  Newsome</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Barbara  Grandy,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Tiffany  Jacobs,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Charlotte  Nagele Boles,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Rosalba  Alarcon,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Della L Adams-meyer,Cheryl  Mendez</t>
+  </si>
+  <si>
+    <t>John  Toland,Paula  Dever,Brittany M Smith</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Matthew  Freund,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Megan  Davis-white,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Regina T Gordon,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Tiffany  Jacobs,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Joan  Kulbok,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Lourdes  Vidal-turner,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Christy  Feehan,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Catherine  Hackney,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Alison  Bell,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Katie L Marakos</t>
   </si>
   <si>
     <t>Peter  Campo,Chalon  Eberhart</t>
   </si>
   <si>
-    <t>Amber  Fenton,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Jason D Little,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Gavin  Powell</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Shaylese  Lassiter</t>
-  </si>
-  <si>
-    <t>Megan  Davis-white,Jason D Little</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Juanita  Hyman,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Danielle  Newsome</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Brittany M Smith,Evelyn  Perez,Crystal A Aikens</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Ericka  Chapman,Matthew  Freund</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Crystal A Aikens</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Ericka  Chapman</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Caroline  Mccabe,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Monica  Thomas,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Kathryn  Howard,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,Theresa  Mansor,Cheryl  Mendez</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Chalon  Eberhart,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Amber  Fenton,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Danielle  Newsome</t>
-  </si>
-  <si>
-    <t>Julie  Land,Susan  Biglin</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Alyssa  Scull,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Theresa  Mansor</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Donna Marie  Shea,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Monica  Thomas,Jason D Little</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Monica  Thomas,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Chalon  Eberhart,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Catherine  Hackney,Gary  Elwell</t>
+    <t>Teonnah  Thompson,Kristina  Santoro,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Kathy N Lewis,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Carol H Buzby,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Gary  Elwell,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Melissa  Wargo-brown,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Kimberly  Ailes,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Robert  Newman,Riana  Cordoba,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Joyce  Sidibe Williams,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Gavin  Powell</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>David B Bean,Paula Mia  Campo,Della L Adams-meyer</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,Adhan  Perez,Matthew  Freund</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Chalon  Eberhart,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Richard  Prince,Charlotte  Phillip-clarke</t>
   </si>
   <si>
     <t>Virginia U Millar,Holly  Lindner</t>
   </si>
   <si>
-    <t>Peter  Campo,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Julie  Land</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Susan  Biglin</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Amber  Fenton</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Kimberly  Ailes</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Antoinette  Gray,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,John  Toland</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Susan  Rosenberg</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Robert  Newman,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Rosalba  Alarcon,John  Dattalo,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Allison M Devinney,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Latisha  Edwards,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Shaylese  Lassiter</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Caroline  Mccabe,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Betsy  Nieves,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Matthew  Freund</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Shaylese  Lassiter</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Chalon  Eberhart,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>William  Heckman,Della L Adams-meyer</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Monica  Thomas</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Amy  Smith,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Chalon  Eberhart,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Evelyn  Perez,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Matthew  Freund</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Shaylese  Lassiter</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Sarah M Dickey</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Juanita  Hyman,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Alyssa  Scull,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Shick,Betsy  Nieves</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Elizabeth  Tegler</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Francesca L Mancuso,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,Kate  Mccabe</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Christy  Feehan,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Tiffany  Smith,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Gionna A Botto-malecki,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Georgiana  Murnaghan,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,Della L Adams-meyer</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Alyssa  Scull,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Kimberly  Ailes</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Michael  Miltenberger,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Donna Marie  Shea,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Theresa  Mansor,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>William  Heckman,David B Bean</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Caroline  Mccabe,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Julie  Land,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Susan  Biglin,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Alyssa  Scull,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Shick,Kimberly  Ailes</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Rosalba  Alarcon,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Holly  Lindner,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Cheryl  Mendez</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Monica  Thomas,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Susan  Biglin</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Julie  Land,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Caroline  Mccabe,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Teonnah  Thompson,Kristina  Santoro</t>
-  </si>
-  <si>
-    <t>Kathy N Lewis,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Latisha  Edwards,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Theresa  Mansor</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Gavin  Powell</t>
-  </si>
-  <si>
-    <t>Megan  Davis-white,Cheryl J Alessandrine,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Elizabeth  Tegler</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Andrea  Vreeland</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Lauren  Kaplan,Joyce  Sidibe Williams</t>
+    <t>Melissa  Wargo-brown,Joan  Kulbok,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Nina  Ficca,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Jennifer  Handson,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Lauren  Kaplan,Tiffany  Jacobs</t>
   </si>
   <si>
     <t>Alison  Bell,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Elizabeth  Tegler</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Kate  Mccabe</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Latisha  Edwards,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Brittany M Smith,Evelyn  Perez,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Tiffany  Jacobs,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Elizabeth  Morales,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Betsy  Nieves</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Tiffany  Jacobs,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Alyssa  Scull,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,Andrea  Vreeland,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Alison  Bell,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Kathy N Lewis,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Crystal A Aikens,Ericka  Chapman</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Monica  Thomas</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Elizabeth  Tegler,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Gionna A Botto-malecki,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>William  Heckman,Kelly  Bird,Theresa  Mansor</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,John  Toland,Ericka  Chapman</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Amber  Fenton,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Virginia U Millar,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Christina  Gonzales,Elizabeth  Tegler</t>
-  </si>
-  <si>
-    <t>Rosalba  Alarcon,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Elizabeth  Tegler,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Rosalba  Alarcon,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Cheryl  Mendez,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Caroline  Mccabe,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Susan  Biglin,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Donna Marie  Shea,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Elizabeth  Morales,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Joan  Kulbok,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Francesca L Mancuso,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Donna Marie  Shea,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>William  Heckman,Kelly  Bird,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Paula  Dever,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Crystal A Aikens,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Antoinette  Gray,Susan  Rosenberg</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Gina  Walk,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Chalon  Eberhart,Kristina  Santoro</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Georgiana  Murnaghan,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Rosalba  Alarcon,Kate  Mccabe,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Jonathan  Lelli,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Lauren  Kaplan,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Cheryl  Mendez,John  Toland</t>
-  </si>
-  <si>
-    <t>Brittany M Smith,Adhan  Perez,Gavin  Powell</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Megan  Davis-white,Jason D Little</t>
-  </si>
-  <si>
-    <t>Teonnah  Thompson,Kristina  Santoro,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Julie  Land,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Holly  Lindner,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Betsy  Nieves,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Robert  Newman,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Andrea  Vreeland,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Donna Marie  Shea,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Gary  Elwell,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Chalon  Eberhart,Teonnah  Thompson,Kristina  Santoro</t>
-  </si>
-  <si>
-    <t>Amber  Fenton,Kathy N Lewis,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Charlotte  Phillip-clarke,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Gary  Elwell,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Charlotte  Nagele Boles,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Francesca L Mancuso,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,John  Dattalo,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>David B Bean,John  Toland</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>Jason D Little,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Juanita  Hyman,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Andrea  Vreeland</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Jason D Little,Cheryl J Alessandrine,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Barbara  Grandy,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Joyce  Sidibe Williams,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Tiffany  Jacobs,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Jiovanna  Debella,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Andrea  Vreeland,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Michael  Miltenberger,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Joyce  Sidibe Williams,Tiffany  Smith</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2494,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2517,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2540,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2563,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2586,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2609,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2655,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2678,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2701,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2724,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2747,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2770,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2793,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2816,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2839,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2862,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2885,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2908,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2931,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2954,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2977,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3000,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3023,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3046,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3069,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3092,7 +3029,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3115,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3138,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3161,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3184,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3207,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3230,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3253,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3276,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3299,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3322,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3345,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3368,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3391,7 +3328,7 @@
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3414,7 +3351,7 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3437,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3460,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3483,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3506,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3529,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3552,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3575,7 +3512,7 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3598,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3621,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3644,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3667,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3690,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3713,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3736,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3759,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3782,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3805,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3828,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3851,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3874,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3897,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3920,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3943,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3966,7 +3903,7 @@
         <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3989,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4012,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4035,7 +3972,7 @@
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4058,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4081,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="G88" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4104,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4127,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4150,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4173,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4196,7 +4133,7 @@
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4219,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4242,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4265,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4288,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4311,7 +4248,7 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4334,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4357,7 +4294,7 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4380,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4403,7 +4340,7 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4426,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4449,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4472,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4495,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4518,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4541,7 +4478,7 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4564,7 +4501,7 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4587,7 +4524,7 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4610,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4633,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4656,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4679,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4702,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4725,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4748,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4771,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4794,7 +4731,7 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4817,7 +4754,7 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4840,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4863,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4886,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4909,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4932,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4955,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4978,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5001,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5024,7 +4961,7 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5047,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5070,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5093,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5116,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5139,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5162,7 +5099,7 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5185,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5208,7 +5145,7 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5231,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>302</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5254,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5277,7 +5214,7 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5300,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5323,7 +5260,7 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>306</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5346,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="G143" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5369,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5392,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5415,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5438,7 +5375,7 @@
         <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5461,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5484,7 +5421,7 @@
         <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5507,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5530,7 +5467,7 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5553,7 +5490,7 @@
         <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5576,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="G153" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5599,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5622,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5645,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5668,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5691,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5714,7 +5651,7 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5737,7 +5674,7 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5760,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5783,7 +5720,7 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5806,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>318</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5829,7 +5766,7 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>319</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5852,7 +5789,7 @@
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5875,7 +5812,7 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5898,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5921,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5944,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5967,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5990,7 +5927,7 @@
         <v>2</v>
       </c>
       <c r="G171" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6013,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6036,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6059,7 +5996,7 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6082,7 +6019,7 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6105,7 +6042,7 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6128,7 +6065,7 @@
         <v>2</v>
       </c>
       <c r="G177" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6151,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6174,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="G179" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6197,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6220,7 +6157,7 @@
         <v>2</v>
       </c>
       <c r="G181" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6243,7 +6180,7 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6266,7 +6203,7 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6289,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6312,7 +6249,7 @@
         <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6335,7 +6272,7 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6358,7 +6295,7 @@
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6381,7 +6318,7 @@
         <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6404,7 +6341,7 @@
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6427,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6450,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="G191" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6473,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6496,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="G193" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6519,7 +6456,7 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6542,7 +6479,7 @@
         <v>2</v>
       </c>
       <c r="G195" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6565,7 +6502,7 @@
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6588,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6611,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6634,7 +6571,7 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6657,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6680,7 +6617,7 @@
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6703,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6726,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="G203" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6749,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6772,7 +6709,7 @@
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6795,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6818,7 +6755,7 @@
         <v>2</v>
       </c>
       <c r="G207" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6841,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6864,7 +6801,7 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6887,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6910,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="G211" t="s">
-        <v>201</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6933,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6956,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6979,7 +6916,7 @@
         <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7002,7 +6939,7 @@
         <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7025,7 +6962,7 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7048,7 +6985,7 @@
         <v>2</v>
       </c>
       <c r="G217" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7071,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7094,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="G219" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7117,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="G220" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7140,7 +7077,7 @@
         <v>2</v>
       </c>
       <c r="G221" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7163,7 +7100,7 @@
         <v>2</v>
       </c>
       <c r="G222" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7186,7 +7123,7 @@
         <v>2</v>
       </c>
       <c r="G223" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7209,7 +7146,7 @@
         <v>2</v>
       </c>
       <c r="G224" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7232,7 +7169,7 @@
         <v>2</v>
       </c>
       <c r="G225" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7255,7 +7192,7 @@
         <v>2</v>
       </c>
       <c r="G226" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7278,7 +7215,7 @@
         <v>2</v>
       </c>
       <c r="G227" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7301,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="G228" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7324,7 +7261,7 @@
         <v>2</v>
       </c>
       <c r="G229" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7347,7 +7284,7 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7370,7 +7307,7 @@
         <v>2</v>
       </c>
       <c r="G231" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7393,7 +7330,7 @@
         <v>2</v>
       </c>
       <c r="G232" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7416,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="G233" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7439,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="G234" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7462,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="G235" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7485,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="G236" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7508,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="G237" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7531,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="G238" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7554,7 +7491,7 @@
         <v>2</v>
       </c>
       <c r="G239" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7577,7 +7514,7 @@
         <v>2</v>
       </c>
       <c r="G240" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7600,7 +7537,7 @@
         <v>2</v>
       </c>
       <c r="G241" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7623,7 +7560,7 @@
         <v>2</v>
       </c>
       <c r="G242" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7646,7 +7583,7 @@
         <v>2</v>
       </c>
       <c r="G243" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7669,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="G244" t="s">
-        <v>361</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7692,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="G245" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7715,7 +7652,7 @@
         <v>2</v>
       </c>
       <c r="G246" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7738,7 +7675,7 @@
         <v>2</v>
       </c>
       <c r="G247" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7761,7 +7698,7 @@
         <v>2</v>
       </c>
       <c r="G248" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7784,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="G249" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7807,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7830,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="G251" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7853,7 +7790,7 @@
         <v>2</v>
       </c>
       <c r="G252" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7876,7 +7813,7 @@
         <v>2</v>
       </c>
       <c r="G253" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7899,7 +7836,7 @@
         <v>3</v>
       </c>
       <c r="G254" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7922,7 +7859,7 @@
         <v>3</v>
       </c>
       <c r="G255" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7945,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="G256" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7968,7 +7905,7 @@
         <v>2</v>
       </c>
       <c r="G257" t="s">
-        <v>367</v>
+        <v>235</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7991,7 +7928,7 @@
         <v>2</v>
       </c>
       <c r="G258" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -8014,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="G259" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -8037,7 +7974,7 @@
         <v>2</v>
       </c>
       <c r="G260" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -8060,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="G261" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -8083,7 +8020,7 @@
         <v>2</v>
       </c>
       <c r="G262" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -8106,7 +8043,7 @@
         <v>2</v>
       </c>
       <c r="G263" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -8129,7 +8066,7 @@
         <v>2</v>
       </c>
       <c r="G264" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -8152,7 +8089,7 @@
         <v>2</v>
       </c>
       <c r="G265" t="s">
-        <v>371</v>
+        <v>222</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -8175,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="G266" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -8198,7 +8135,7 @@
         <v>2</v>
       </c>
       <c r="G267" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8221,7 +8158,7 @@
         <v>2</v>
       </c>
       <c r="G268" t="s">
-        <v>225</v>
+        <v>359</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -8244,7 +8181,7 @@
         <v>2</v>
       </c>
       <c r="G269" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -8267,7 +8204,7 @@
         <v>2</v>
       </c>
       <c r="G270" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -8290,7 +8227,7 @@
         <v>2</v>
       </c>
       <c r="G271" t="s">
-        <v>195</v>
+        <v>361</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -8313,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="G272" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8336,7 +8273,7 @@
         <v>2</v>
       </c>
       <c r="G273" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8359,7 +8296,7 @@
         <v>2</v>
       </c>
       <c r="G274" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8382,7 +8319,7 @@
         <v>2</v>
       </c>
       <c r="G275" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8405,7 +8342,7 @@
         <v>2</v>
       </c>
       <c r="G276" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8428,7 +8365,7 @@
         <v>2</v>
       </c>
       <c r="G277" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8451,7 +8388,7 @@
         <v>2</v>
       </c>
       <c r="G278" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8474,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="G279" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8497,7 +8434,7 @@
         <v>2</v>
       </c>
       <c r="G280" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8520,7 +8457,7 @@
         <v>2</v>
       </c>
       <c r="G281" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8543,7 +8480,7 @@
         <v>2</v>
       </c>
       <c r="G282" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8566,7 +8503,7 @@
         <v>2</v>
       </c>
       <c r="G283" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8589,7 +8526,7 @@
         <v>2</v>
       </c>
       <c r="G284" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8612,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="G285" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8635,7 +8572,7 @@
         <v>2</v>
       </c>
       <c r="G286" t="s">
-        <v>384</v>
+        <v>273</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8658,7 +8595,7 @@
         <v>2</v>
       </c>
       <c r="G287" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8681,7 +8618,7 @@
         <v>2</v>
       </c>
       <c r="G288" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8704,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="G289" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8727,7 +8664,7 @@
         <v>2</v>
       </c>
       <c r="G290" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8750,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="G291" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8773,7 +8710,7 @@
         <v>2</v>
       </c>
       <c r="G292" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8796,7 +8733,7 @@
         <v>2</v>
       </c>
       <c r="G293" t="s">
-        <v>389</v>
+        <v>275</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8819,7 +8756,7 @@
         <v>2</v>
       </c>
       <c r="G294" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8842,7 +8779,7 @@
         <v>2</v>
       </c>
       <c r="G295" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8865,7 +8802,7 @@
         <v>2</v>
       </c>
       <c r="G296" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -8888,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="G297" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -8911,7 +8848,7 @@
         <v>2</v>
       </c>
       <c r="G298" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -8934,7 +8871,7 @@
         <v>2</v>
       </c>
       <c r="G299" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8957,7 +8894,7 @@
         <v>3</v>
       </c>
       <c r="G300" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8980,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="G301" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -9003,7 +8940,7 @@
         <v>2</v>
       </c>
       <c r="G302" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -9026,7 +8963,7 @@
         <v>2</v>
       </c>
       <c r="G303" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -9049,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="G304" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -9072,7 +9009,7 @@
         <v>2</v>
       </c>
       <c r="G305" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -9095,7 +9032,7 @@
         <v>2</v>
       </c>
       <c r="G306" t="s">
-        <v>395</v>
+        <v>208</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -9118,7 +9055,7 @@
         <v>2</v>
       </c>
       <c r="G307" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -9141,7 +9078,7 @@
         <v>2</v>
       </c>
       <c r="G308" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9164,7 +9101,7 @@
         <v>2</v>
       </c>
       <c r="G309" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -9187,7 +9124,7 @@
         <v>2</v>
       </c>
       <c r="G310" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -9210,7 +9147,7 @@
         <v>2</v>
       </c>
       <c r="G311" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -9233,7 +9170,7 @@
         <v>2</v>
       </c>
       <c r="G312" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -9256,7 +9193,7 @@
         <v>2</v>
       </c>
       <c r="G313" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -9279,7 +9216,7 @@
         <v>2</v>
       </c>
       <c r="G314" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9302,7 +9239,7 @@
         <v>2</v>
       </c>
       <c r="G315" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9325,7 +9262,7 @@
         <v>2</v>
       </c>
       <c r="G316" t="s">
-        <v>247</v>
+        <v>359</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -9348,7 +9285,7 @@
         <v>2</v>
       </c>
       <c r="G317" t="s">
-        <v>202</v>
+        <v>360</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -9371,7 +9308,7 @@
         <v>2</v>
       </c>
       <c r="G318" t="s">
-        <v>201</v>
+        <v>385</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9394,7 +9331,7 @@
         <v>2</v>
       </c>
       <c r="G319" t="s">
-        <v>225</v>
+        <v>386</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -9417,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="G320" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9440,7 +9377,7 @@
         <v>2</v>
       </c>
       <c r="G321" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9463,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="G322" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -9486,7 +9423,7 @@
         <v>2</v>
       </c>
       <c r="G323" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -9509,7 +9446,7 @@
         <v>2</v>
       </c>
       <c r="G324" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -9532,7 +9469,7 @@
         <v>2</v>
       </c>
       <c r="G325" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -9555,7 +9492,7 @@
         <v>2</v>
       </c>
       <c r="G326" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -9578,7 +9515,7 @@
         <v>2</v>
       </c>
       <c r="G327" t="s">
-        <v>209</v>
+        <v>310</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9601,7 +9538,7 @@
         <v>2</v>
       </c>
       <c r="G328" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9624,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="G329" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9647,7 +9584,7 @@
         <v>2</v>
       </c>
       <c r="G330" t="s">
-        <v>399</v>
+        <v>313</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9670,7 +9607,7 @@
         <v>2</v>
       </c>
       <c r="G331" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9693,7 +9630,7 @@
         <v>2</v>
       </c>
       <c r="G332" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -9716,7 +9653,7 @@
         <v>2</v>
       </c>
       <c r="G333" t="s">
-        <v>401</v>
+        <v>315</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9739,7 +9676,7 @@
         <v>2</v>
       </c>
       <c r="G334" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -9762,7 +9699,7 @@
         <v>2</v>
       </c>
       <c r="G335" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9785,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="G336" t="s">
-        <v>376</v>
+        <v>212</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -9808,7 +9745,7 @@
         <v>2</v>
       </c>
       <c r="G337" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -9831,7 +9768,7 @@
         <v>2</v>
       </c>
       <c r="G338" t="s">
-        <v>403</v>
+        <v>319</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -9854,7 +9791,7 @@
         <v>2</v>
       </c>
       <c r="G339" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9877,7 +9814,7 @@
         <v>2</v>
       </c>
       <c r="G340" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -9900,7 +9837,7 @@
         <v>2</v>
       </c>
       <c r="G341" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -9923,7 +9860,7 @@
         <v>2</v>
       </c>
       <c r="G342" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9946,7 +9883,7 @@
         <v>2</v>
       </c>
       <c r="G343" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -9969,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="G344" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -9992,7 +9929,7 @@
         <v>2</v>
       </c>
       <c r="G345" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -10015,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="G346" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -10038,7 +9975,7 @@
         <v>2</v>
       </c>
       <c r="G347" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -10061,7 +9998,7 @@
         <v>2</v>
       </c>
       <c r="G348" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -10084,7 +10021,7 @@
         <v>2</v>
       </c>
       <c r="G349" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -10107,7 +10044,7 @@
         <v>2</v>
       </c>
       <c r="G350" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -10130,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="G351" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -10153,7 +10090,7 @@
         <v>2</v>
       </c>
       <c r="G352" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -10199,7 +10136,7 @@
         <v>2</v>
       </c>
       <c r="G354" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -10222,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="G355" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -10245,7 +10182,7 @@
         <v>2</v>
       </c>
       <c r="G356" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -10268,7 +10205,7 @@
         <v>2</v>
       </c>
       <c r="G357" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -10291,7 +10228,7 @@
         <v>2</v>
       </c>
       <c r="G358" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -10314,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="G359" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -10337,7 +10274,7 @@
         <v>2</v>
       </c>
       <c r="G360" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -10360,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="G361" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -10383,7 +10320,7 @@
         <v>2</v>
       </c>
       <c r="G362" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -10406,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="G363" t="s">
-        <v>192</v>
+        <v>359</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -10429,7 +10366,7 @@
         <v>2</v>
       </c>
       <c r="G364" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -10452,7 +10389,7 @@
         <v>2</v>
       </c>
       <c r="G365" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -10475,7 +10412,7 @@
         <v>2</v>
       </c>
       <c r="G366" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -10498,7 +10435,7 @@
         <v>2</v>
       </c>
       <c r="G367" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -10521,7 +10458,7 @@
         <v>2</v>
       </c>
       <c r="G368" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -10544,7 +10481,7 @@
         <v>2</v>
       </c>
       <c r="G369" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -10567,7 +10504,7 @@
         <v>2</v>
       </c>
       <c r="G370" t="s">
-        <v>209</v>
+        <v>393</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -10590,7 +10527,7 @@
         <v>2</v>
       </c>
       <c r="G371" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -10613,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="G372" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -10636,7 +10573,7 @@
         <v>2</v>
       </c>
       <c r="G373" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -10659,7 +10596,7 @@
         <v>2</v>
       </c>
       <c r="G374" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -10682,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="G375" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -10705,7 +10642,7 @@
         <v>2</v>
       </c>
       <c r="G376" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -10728,7 +10665,7 @@
         <v>2</v>
       </c>
       <c r="G377" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -10751,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="G378" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -10774,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="G379" t="s">
-        <v>261</v>
+        <v>395</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -10797,7 +10734,7 @@
         <v>2</v>
       </c>
       <c r="G380" t="s">
-        <v>243</v>
+        <v>396</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -10820,7 +10757,7 @@
         <v>2</v>
       </c>
       <c r="G381" t="s">
-        <v>244</v>
+        <v>365</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -10843,7 +10780,7 @@
         <v>2</v>
       </c>
       <c r="G382" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -10866,7 +10803,7 @@
         <v>2</v>
       </c>
       <c r="G383" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -10889,7 +10826,7 @@
         <v>2</v>
       </c>
       <c r="G384" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -10912,7 +10849,7 @@
         <v>2</v>
       </c>
       <c r="G385" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -10935,7 +10872,7 @@
         <v>2</v>
       </c>
       <c r="G386" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -10958,7 +10895,7 @@
         <v>2</v>
       </c>
       <c r="G387" t="s">
-        <v>413</v>
+        <v>237</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -10981,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="G388" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -11004,7 +10941,7 @@
         <v>2</v>
       </c>
       <c r="G389" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -11027,7 +10964,7 @@
         <v>2</v>
       </c>
       <c r="G390" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -11050,7 +10987,7 @@
         <v>2</v>
       </c>
       <c r="G391" t="s">
-        <v>407</v>
+        <v>272</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -11073,7 +11010,7 @@
         <v>2</v>
       </c>
       <c r="G392" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -11096,7 +11033,7 @@
         <v>2</v>
       </c>
       <c r="G393" t="s">
-        <v>335</v>
+        <v>240</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -11119,7 +11056,7 @@
         <v>2</v>
       </c>
       <c r="G394" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -11142,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="G395" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -11165,7 +11102,7 @@
         <v>2</v>
       </c>
       <c r="G396" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -11188,7 +11125,7 @@
         <v>2</v>
       </c>
       <c r="G397" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -11211,7 +11148,7 @@
         <v>2</v>
       </c>
       <c r="G398" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -11234,7 +11171,7 @@
         <v>2</v>
       </c>
       <c r="G399" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -11257,7 +11194,7 @@
         <v>2</v>
       </c>
       <c r="G400" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -11280,7 +11217,7 @@
         <v>2</v>
       </c>
       <c r="G401" t="s">
-        <v>415</v>
+        <v>335</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -11303,7 +11240,7 @@
         <v>2</v>
       </c>
       <c r="G402" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -11326,7 +11263,7 @@
         <v>2</v>
       </c>
       <c r="G403" t="s">
-        <v>416</v>
+        <v>276</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -11349,7 +11286,7 @@
         <v>2</v>
       </c>
       <c r="G404" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -11372,7 +11309,7 @@
         <v>2</v>
       </c>
       <c r="G405" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -11395,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="G406" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -11418,7 +11355,7 @@
         <v>2</v>
       </c>
       <c r="G407" t="s">
-        <v>367</v>
+        <v>235</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -11441,7 +11378,7 @@
         <v>2</v>
       </c>
       <c r="G408" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -11464,7 +11401,7 @@
         <v>2</v>
       </c>
       <c r="G409" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -11487,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="G410" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -11510,7 +11447,7 @@
         <v>2</v>
       </c>
       <c r="G411" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -11533,7 +11470,7 @@
         <v>2</v>
       </c>
       <c r="G412" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -11556,7 +11493,7 @@
         <v>2</v>
       </c>
       <c r="G413" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -11579,7 +11516,7 @@
         <v>2</v>
       </c>
       <c r="G414" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -11602,7 +11539,7 @@
         <v>2</v>
       </c>
       <c r="G415" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -11625,7 +11562,7 @@
         <v>2</v>
       </c>
       <c r="G416" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -11648,7 +11585,7 @@
         <v>2</v>
       </c>
       <c r="G417" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -11671,7 +11608,7 @@
         <v>2</v>
       </c>
       <c r="G418" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -11694,7 +11631,7 @@
         <v>3</v>
       </c>
       <c r="G419" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -11717,7 +11654,7 @@
         <v>2</v>
       </c>
       <c r="G420" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -11740,7 +11677,7 @@
         <v>2</v>
       </c>
       <c r="G421" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -11763,7 +11700,7 @@
         <v>2</v>
       </c>
       <c r="G422" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -11786,7 +11723,7 @@
         <v>2</v>
       </c>
       <c r="G423" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -11809,7 +11746,7 @@
         <v>2</v>
       </c>
       <c r="G424" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -11832,7 +11769,7 @@
         <v>2</v>
       </c>
       <c r="G425" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -11855,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="G426" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -11878,7 +11815,7 @@
         <v>2</v>
       </c>
       <c r="G427" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -11901,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="G428" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -11924,7 +11861,7 @@
         <v>2</v>
       </c>
       <c r="G429" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -11947,7 +11884,7 @@
         <v>2</v>
       </c>
       <c r="G430" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -11970,7 +11907,7 @@
         <v>2</v>
       </c>
       <c r="G431" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -11993,7 +11930,7 @@
         <v>3</v>
       </c>
       <c r="G432" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -12016,7 +11953,7 @@
         <v>2</v>
       </c>
       <c r="G433" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -12039,7 +11976,7 @@
         <v>2</v>
       </c>
       <c r="G434" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -12062,7 +11999,7 @@
         <v>2</v>
       </c>
       <c r="G435" t="s">
-        <v>418</v>
+        <v>275</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -12085,7 +12022,7 @@
         <v>2</v>
       </c>
       <c r="G436" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -12108,7 +12045,7 @@
         <v>2</v>
       </c>
       <c r="G437" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -12131,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="G438" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -12154,7 +12091,7 @@
         <v>2</v>
       </c>
       <c r="G439" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -12177,7 +12114,7 @@
         <v>2</v>
       </c>
       <c r="G440" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -12200,7 +12137,7 @@
         <v>2</v>
       </c>
       <c r="G441" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -12223,7 +12160,7 @@
         <v>2</v>
       </c>
       <c r="G442" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -12246,7 +12183,7 @@
         <v>2</v>
       </c>
       <c r="G443" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -12269,7 +12206,7 @@
         <v>2</v>
       </c>
       <c r="G444" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -12292,7 +12229,7 @@
         <v>2</v>
       </c>
       <c r="G445" t="s">
-        <v>442</v>
+        <v>233</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -12315,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="G446" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -12338,7 +12275,7 @@
         <v>3</v>
       </c>
       <c r="G447" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -12361,7 +12298,7 @@
         <v>2</v>
       </c>
       <c r="G448" t="s">
-        <v>445</v>
+        <v>216</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -12384,7 +12321,7 @@
         <v>2</v>
       </c>
       <c r="G449" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -12430,7 +12367,7 @@
         <v>2</v>
       </c>
       <c r="G451" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -12453,7 +12390,7 @@
         <v>2</v>
       </c>
       <c r="G452" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -12476,7 +12413,7 @@
         <v>3</v>
       </c>
       <c r="G453" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -12499,7 +12436,7 @@
         <v>2</v>
       </c>
       <c r="G454" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -12522,7 +12459,7 @@
         <v>3</v>
       </c>
       <c r="G455" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -12545,7 +12482,7 @@
         <v>2</v>
       </c>
       <c r="G456" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -12568,7 +12505,7 @@
         <v>2</v>
       </c>
       <c r="G457" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -12591,7 +12528,7 @@
         <v>2</v>
       </c>
       <c r="G458" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -12614,7 +12551,7 @@
         <v>2</v>
       </c>
       <c r="G459" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -12637,7 +12574,7 @@
         <v>3</v>
       </c>
       <c r="G460" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -12660,7 +12597,7 @@
         <v>2</v>
       </c>
       <c r="G461" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -12683,7 +12620,7 @@
         <v>3</v>
       </c>
       <c r="G462" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -12706,7 +12643,7 @@
         <v>2</v>
       </c>
       <c r="G463" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -12729,7 +12666,7 @@
         <v>2</v>
       </c>
       <c r="G464" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -12752,7 +12689,7 @@
         <v>2</v>
       </c>
       <c r="G465" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -12775,7 +12712,7 @@
         <v>2</v>
       </c>
       <c r="G466" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -12798,7 +12735,7 @@
         <v>2</v>
       </c>
       <c r="G467" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -12821,7 +12758,7 @@
         <v>2</v>
       </c>
       <c r="G468" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -12844,7 +12781,7 @@
         <v>3</v>
       </c>
       <c r="G469" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -12867,7 +12804,7 @@
         <v>3</v>
       </c>
       <c r="G470" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -12890,7 +12827,7 @@
         <v>2</v>
       </c>
       <c r="G471" t="s">
-        <v>326</v>
+        <v>199</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -12913,7 +12850,7 @@
         <v>2</v>
       </c>
       <c r="G472" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -12936,7 +12873,7 @@
         <v>2</v>
       </c>
       <c r="G473" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -12959,7 +12896,7 @@
         <v>2</v>
       </c>
       <c r="G474" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -12982,7 +12919,7 @@
         <v>2</v>
       </c>
       <c r="G475" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -13005,7 +12942,7 @@
         <v>2</v>
       </c>
       <c r="G476" t="s">
-        <v>285</v>
+        <v>450</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -13028,7 +12965,7 @@
         <v>2</v>
       </c>
       <c r="G477" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -13051,7 +12988,7 @@
         <v>2</v>
       </c>
       <c r="G478" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -13074,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="G479" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -13097,7 +13034,7 @@
         <v>2</v>
       </c>
       <c r="G480" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -13120,7 +13057,7 @@
         <v>2</v>
       </c>
       <c r="G481" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -13143,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="G482" t="s">
-        <v>468</v>
+        <v>305</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -13166,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="G483" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -13189,7 +13126,7 @@
         <v>2</v>
       </c>
       <c r="G484" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -13212,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="G485" t="s">
-        <v>469</v>
+        <v>198</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -13235,7 +13172,7 @@
         <v>2</v>
       </c>
       <c r="G486" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -13258,7 +13195,7 @@
         <v>2</v>
       </c>
       <c r="G487" t="s">
-        <v>394</v>
+        <v>219</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -13281,7 +13218,7 @@
         <v>2</v>
       </c>
       <c r="G488" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -13304,7 +13241,7 @@
         <v>2</v>
       </c>
       <c r="G489" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -13327,7 +13264,7 @@
         <v>2</v>
       </c>
       <c r="G490" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -13350,7 +13287,7 @@
         <v>2</v>
       </c>
       <c r="G491" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -13373,7 +13310,7 @@
         <v>2</v>
       </c>
       <c r="G492" t="s">
-        <v>323</v>
+        <v>453</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -13396,7 +13333,7 @@
         <v>2</v>
       </c>
       <c r="G493" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -13419,7 +13356,7 @@
         <v>2</v>
       </c>
       <c r="G494" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -13442,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="G495" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -13465,7 +13402,7 @@
         <v>2</v>
       </c>
       <c r="G496" t="s">
-        <v>471</v>
+        <v>322</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -13488,7 +13425,7 @@
         <v>2</v>
       </c>
       <c r="G497" t="s">
-        <v>472</v>
+        <v>407</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -13511,7 +13448,7 @@
         <v>3</v>
       </c>
       <c r="G498" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -13534,7 +13471,7 @@
         <v>2</v>
       </c>
       <c r="G499" t="s">
-        <v>341</v>
+        <v>456</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -13557,7 +13494,7 @@
         <v>2</v>
       </c>
       <c r="G500" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -13580,7 +13517,7 @@
         <v>2</v>
       </c>
       <c r="G501" t="s">
-        <v>474</v>
+        <v>318</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -13603,7 +13540,7 @@
         <v>3</v>
       </c>
       <c r="G502" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -13626,7 +13563,7 @@
         <v>3</v>
       </c>
       <c r="G503" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -13649,7 +13586,7 @@
         <v>3</v>
       </c>
       <c r="G504" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -13672,7 +13609,7 @@
         <v>2</v>
       </c>
       <c r="G505" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -13695,7 +13632,7 @@
         <v>2</v>
       </c>
       <c r="G506" t="s">
-        <v>479</v>
+        <v>393</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -13718,7 +13655,7 @@
         <v>3</v>
       </c>
       <c r="G507" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -13741,7 +13678,7 @@
         <v>3</v>
       </c>
       <c r="G508" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -13764,7 +13701,7 @@
         <v>2</v>
       </c>
       <c r="G509" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -13787,7 +13724,7 @@
         <v>2</v>
       </c>
       <c r="G510" t="s">
-        <v>483</v>
+        <v>262</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -13810,7 +13747,7 @@
         <v>2</v>
       </c>
       <c r="G511" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -13833,7 +13770,7 @@
         <v>2</v>
       </c>
       <c r="G512" t="s">
-        <v>354</v>
+        <v>466</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -13856,7 +13793,7 @@
         <v>2</v>
       </c>
       <c r="G513" t="s">
-        <v>485</v>
+        <v>352</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -13879,7 +13816,7 @@
         <v>2</v>
       </c>
       <c r="G514" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -13902,7 +13839,7 @@
         <v>2</v>
       </c>
       <c r="G515" t="s">
-        <v>329</v>
+        <v>234</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -13925,7 +13862,7 @@
         <v>2</v>
       </c>
       <c r="G516" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -13948,7 +13885,7 @@
         <v>2</v>
       </c>
       <c r="G517" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -13971,7 +13908,7 @@
         <v>2</v>
       </c>
       <c r="G518" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -13994,7 +13931,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -14017,7 +13954,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -14040,7 +13977,7 @@
         <v>2</v>
       </c>
       <c r="G521" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -14063,7 +14000,7 @@
         <v>2</v>
       </c>
       <c r="G522" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -14086,7 +14023,7 @@
         <v>2</v>
       </c>
       <c r="G523" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -14109,7 +14046,7 @@
         <v>2</v>
       </c>
       <c r="G524" t="s">
-        <v>267</v>
+        <v>472</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -14132,7 +14069,7 @@
         <v>2</v>
       </c>
       <c r="G525" t="s">
-        <v>361</v>
+        <v>473</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -14155,7 +14092,7 @@
         <v>2</v>
       </c>
       <c r="G526" t="s">
-        <v>487</v>
+        <v>375</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -14178,7 +14115,7 @@
         <v>2</v>
       </c>
       <c r="G527" t="s">
-        <v>342</v>
+        <v>249</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -14201,7 +14138,7 @@
         <v>2</v>
       </c>
       <c r="G528" t="s">
-        <v>488</v>
+        <v>345</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -14224,7 +14161,7 @@
         <v>2</v>
       </c>
       <c r="G529" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -14247,7 +14184,7 @@
         <v>2</v>
       </c>
       <c r="G530" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -14270,7 +14207,7 @@
         <v>2</v>
       </c>
       <c r="G531" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -14293,7 +14230,7 @@
         <v>2</v>
       </c>
       <c r="G532" t="s">
-        <v>330</v>
+        <v>475</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -14316,7 +14253,7 @@
         <v>2</v>
       </c>
       <c r="G533" t="s">
-        <v>264</v>
+        <v>476</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -14339,7 +14276,7 @@
         <v>2</v>
       </c>
       <c r="G534" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -14362,7 +14299,7 @@
         <v>2</v>
       </c>
       <c r="G535" t="s">
-        <v>492</v>
+        <v>249</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -14385,7 +14322,7 @@
         <v>2</v>
       </c>
       <c r="G536" t="s">
-        <v>493</v>
+        <v>376</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -14408,7 +14345,7 @@
         <v>2</v>
       </c>
       <c r="G537" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -14431,7 +14368,7 @@
         <v>2</v>
       </c>
       <c r="G538" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -14454,7 +14391,7 @@
         <v>2</v>
       </c>
       <c r="G539" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -14477,7 +14414,7 @@
         <v>2</v>
       </c>
       <c r="G540" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -14500,7 +14437,7 @@
         <v>2</v>
       </c>
       <c r="G541" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -14523,7 +14460,7 @@
         <v>3</v>
       </c>
       <c r="G542" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -14546,7 +14483,7 @@
         <v>3</v>
       </c>
       <c r="G543" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -14569,7 +14506,7 @@
         <v>3</v>
       </c>
       <c r="G544" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -14592,7 +14529,7 @@
         <v>3</v>
       </c>
       <c r="G545" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -14615,7 +14552,7 @@
         <v>3</v>
       </c>
       <c r="G546" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -14638,7 +14575,7 @@
         <v>3</v>
       </c>
       <c r="G547" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -14661,7 +14598,7 @@
         <v>2</v>
       </c>
       <c r="G548" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -14684,7 +14621,7 @@
         <v>2</v>
       </c>
       <c r="G549" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -14707,7 +14644,7 @@
         <v>3</v>
       </c>
       <c r="G550" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -14730,7 +14667,7 @@
         <v>3</v>
       </c>
       <c r="G551" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -14753,7 +14690,7 @@
         <v>2</v>
       </c>
       <c r="G552" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -14776,7 +14713,7 @@
         <v>2</v>
       </c>
       <c r="G553" t="s">
-        <v>509</v>
+        <v>237</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -14799,7 +14736,7 @@
         <v>3</v>
       </c>
       <c r="G554" t="s">
-        <v>510</v>
+        <v>180</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -14822,7 +14759,7 @@
         <v>3</v>
       </c>
       <c r="G555" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -14845,7 +14782,7 @@
         <v>3</v>
       </c>
       <c r="G556" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -14868,7 +14805,7 @@
         <v>3</v>
       </c>
       <c r="G557" t="s">
-        <v>513</v>
+        <v>257</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -14891,7 +14828,7 @@
         <v>3</v>
       </c>
       <c r="G558" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -14914,7 +14851,7 @@
         <v>3</v>
       </c>
       <c r="G559" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -14937,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="G560" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -14960,7 +14897,7 @@
         <v>2</v>
       </c>
       <c r="G561" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -14983,7 +14920,7 @@
         <v>3</v>
       </c>
       <c r="G562" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -15006,7 +14943,7 @@
         <v>3</v>
       </c>
       <c r="G563" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -15029,7 +14966,7 @@
         <v>3</v>
       </c>
       <c r="G564" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -15052,7 +14989,7 @@
         <v>3</v>
       </c>
       <c r="G565" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -15075,7 +15012,7 @@
         <v>2</v>
       </c>
       <c r="G566" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -15098,7 +15035,7 @@
         <v>2</v>
       </c>
       <c r="G567" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -15144,7 +15081,7 @@
         <v>3</v>
       </c>
       <c r="G569" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -15167,7 +15104,7 @@
         <v>3</v>
       </c>
       <c r="G570" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -15190,7 +15127,7 @@
         <v>3</v>
       </c>
       <c r="G571" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -15213,7 +15150,7 @@
         <v>3</v>
       </c>
       <c r="G572" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -15236,7 +15173,7 @@
         <v>3</v>
       </c>
       <c r="G573" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -15259,7 +15196,7 @@
         <v>3</v>
       </c>
       <c r="G574" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -15282,7 +15219,7 @@
         <v>3</v>
       </c>
       <c r="G575" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -15305,7 +15242,7 @@
         <v>3</v>
       </c>
       <c r="G576" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -15328,7 +15265,7 @@
         <v>3</v>
       </c>
       <c r="G577" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -15351,7 +15288,7 @@
         <v>3</v>
       </c>
       <c r="G578" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -15374,7 +15311,7 @@
         <v>3</v>
       </c>
       <c r="G579" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -15397,7 +15334,7 @@
         <v>2</v>
       </c>
       <c r="G580" t="s">
-        <v>218</v>
+        <v>516</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -15420,7 +15357,7 @@
         <v>2</v>
       </c>
       <c r="G581" t="s">
-        <v>262</v>
+        <v>517</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -15443,7 +15380,7 @@
         <v>3</v>
       </c>
       <c r="G582" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -15466,7 +15403,7 @@
         <v>3</v>
       </c>
       <c r="G583" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -15489,7 +15426,7 @@
         <v>3</v>
       </c>
       <c r="G584" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -15512,7 +15449,7 @@
         <v>3</v>
       </c>
       <c r="G585" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -15535,7 +15472,7 @@
         <v>3</v>
       </c>
       <c r="G586" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -15558,7 +15495,7 @@
         <v>3</v>
       </c>
       <c r="G587" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -15581,7 +15518,7 @@
         <v>3</v>
       </c>
       <c r="G588" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -15604,7 +15541,7 @@
         <v>3</v>
       </c>
       <c r="G589" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -15627,7 +15564,7 @@
         <v>2</v>
       </c>
       <c r="G590" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -15650,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="G591" t="s">
-        <v>543</v>
+        <v>323</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -15673,7 +15610,7 @@
         <v>2</v>
       </c>
       <c r="G592" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -15696,7 +15633,7 @@
         <v>2</v>
       </c>
       <c r="G593" t="s">
-        <v>545</v>
+        <v>386</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -15719,7 +15656,7 @@
         <v>2</v>
       </c>
       <c r="G594" t="s">
-        <v>546</v>
+        <v>402</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -15742,7 +15679,7 @@
         <v>2</v>
       </c>
       <c r="G595" t="s">
-        <v>547</v>
+        <v>403</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -15765,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="G596" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -15788,7 +15725,7 @@
         <v>2</v>
       </c>
       <c r="G597" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -15811,7 +15748,7 @@
         <v>2</v>
       </c>
       <c r="G598" t="s">
-        <v>549</v>
+        <v>390</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -15834,7 +15771,7 @@
         <v>2</v>
       </c>
       <c r="G599" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -15857,7 +15794,7 @@
         <v>2</v>
       </c>
       <c r="G600" t="s">
-        <v>551</v>
+        <v>441</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -15880,7 +15817,7 @@
         <v>2</v>
       </c>
       <c r="G601" t="s">
-        <v>552</v>
+        <v>344</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -15903,7 +15840,7 @@
         <v>3</v>
       </c>
       <c r="G602" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -15926,7 +15863,7 @@
         <v>3</v>
       </c>
       <c r="G603" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -15949,7 +15886,7 @@
         <v>3</v>
       </c>
       <c r="G604" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -15972,7 +15909,7 @@
         <v>3</v>
       </c>
       <c r="G605" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -15995,7 +15932,7 @@
         <v>2</v>
       </c>
       <c r="G606" t="s">
-        <v>457</v>
+        <v>236</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -16018,7 +15955,7 @@
         <v>2</v>
       </c>
       <c r="G607" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -16041,7 +15978,7 @@
         <v>3</v>
       </c>
       <c r="G608" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -16064,7 +16001,7 @@
         <v>3</v>
       </c>
       <c r="G609" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -16087,7 +16024,7 @@
         <v>3</v>
       </c>
       <c r="G610" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -16110,7 +16047,7 @@
         <v>3</v>
       </c>
       <c r="G611" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -16133,7 +16070,7 @@
         <v>2</v>
       </c>
       <c r="G612" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -16156,7 +16093,7 @@
         <v>2</v>
       </c>
       <c r="G613" t="s">
-        <v>357</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
